--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -44,7 +44,43 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:31 AM</t>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Friday, 5 September, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +290,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +302,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +710,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>98.049999999999997</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -80,7 +80,22 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:47 AM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Friday, 5 September, 2025 10:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -775,38 +790,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>98.049999999999997</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>133.05000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>30</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +873,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -95,7 +95,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:11 AM</t>
+    <t>Friday, 5 September, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -92,10 +107,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Friday, 5 September, 2025 10:59 AM</t>
+    <t>Friday, 5 September, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -775,18 +787,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -795,20 +807,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -823,38 +835,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>133.05000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>29</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>24</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>30</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>29</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>30</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>565.04999999999995</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>34</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -878,10 +923,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -44,22 +44,55 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
     <t>94.0500</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
   </si>
   <si>
     <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
@@ -92,9 +125,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -107,7 +137,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:22 AM</t>
+    <t>Friday, 5 September, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -798,7 +828,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -807,31 +837,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -840,66 +870,165 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>565.04999999999995</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c t="s" r="Q11" s="12">
         <v>32</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>35</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>674.88</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -928,10 +1057,25 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -62,6 +62,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -98,9 +122,6 @@
     <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -110,6 +131,18 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8304:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -119,12 +152,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -137,7 +164,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:41 AM</t>
+    <t>Friday, 5 September, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -828,7 +855,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -877,7 +904,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,11 +914,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -903,14 +930,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -920,14 +947,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -943,24 +970,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,66 +996,165 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>41</v>
       </c>
-      <c t="s" r="Q13" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>674.88</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>46</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>46</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>800.88</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1198,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -164,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:42 AM</t>
+    <t>Friday, 5 September, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,38 +1135,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>800.88</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>46</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>825.88</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1258,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:46 AM</t>
+    <t>Friday, 5 September, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>89.00</t>
   </si>
   <si>
@@ -86,6 +95,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COPAD 10.000 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>70.9500</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -110,6 +131,15 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -131,6 +161,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -146,9 +185,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -176,7 +212,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:57 AM</t>
+    <t>Friday, 5 September, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -834,7 +870,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -843,14 +879,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -860,14 +896,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -883,7 +919,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -893,14 +929,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -909,14 +945,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -926,14 +962,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -942,14 +978,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -959,14 +995,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -975,14 +1011,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -999,7 +1035,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1015,7 +1051,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1025,14 +1061,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1048,7 +1084,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1058,14 +1094,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1074,31 +1110,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1107,31 +1143,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1140,66 +1176,198 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>54</v>
       </c>
-      <c t="s" r="Q17" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>825.88</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c t="s" r="Q18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>58</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>58</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>58</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>1088.8299999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1431,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -131,6 +143,18 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -170,6 +194,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -188,6 +224,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
@@ -212,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:58 AM</t>
+    <t>Friday, 5 September, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -969,7 +1017,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1002,7 +1050,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1068,7 +1116,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1084,7 +1132,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1094,14 +1142,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,14 +1158,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,11 +1175,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1143,14 +1191,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,14 +1208,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,14 +1224,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,11 +1241,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1209,14 +1257,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1233,7 +1281,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,31 +1290,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,31 +1323,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1308,66 +1356,198 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>33</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>70</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>33</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>70</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>1088.8299999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>69</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>76</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>70</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>70</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1157.1900000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>83</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>84</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>85</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1631,30 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 12:03 PM</t>
+    <t>Friday, 5 September, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>51.00</t>
@@ -236,6 +236,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
@@ -260,7 +272,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 12:04 PM</t>
+    <t>Friday, 5 September, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,38 +1528,71 @@
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1157.1900000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>83</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>84</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>70</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>85</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1227.1900000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>87</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>88</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>89</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1651,10 +1696,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -194,6 +194,45 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -272,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 12:35 PM</t>
+    <t>Friday, 5 September, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1381,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1352,11 +1391,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1368,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1385,14 +1424,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,7 +1440,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1414,18 +1453,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,28 +1473,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1467,31 +1506,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,31 +1539,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,66 +1572,198 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>33</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>83</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>86</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1227.1900000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>87</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>88</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>89</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>83</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>93</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>83</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>97</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>83</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>98</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1458.9300000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>100</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>101</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>102</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1701,10 +1872,30 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 12:42 PM</t>
+    <t>Friday, 5 September, 2025 3:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -185,6 +185,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -257,12 +263,24 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -275,6 +293,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -311,7 +338,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 3:10 PM</t>
+    <t>Friday, 5 September, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,7 +1375,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1358,14 +1385,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1391,11 +1418,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1407,14 +1434,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1424,11 +1451,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1440,14 +1467,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1457,14 +1484,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1473,14 +1500,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,11 +1517,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1506,14 +1533,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1550,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,14 +1583,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,31 +1599,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,28 +1632,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1638,31 +1665,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,28 +1698,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1704,66 +1731,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1458.9300000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>98</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>86</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>99</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>102</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>86</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>103</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>106</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>86</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>107</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1515.9300000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>109</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>110</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>111</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1892,10 +2018,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -185,18 +197,36 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
     <t>36.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -206,15 +236,9 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -266,7 +290,7 @@
     <t>امواس لورد</t>
   </si>
   <si>
-    <t>36:0</t>
+    <t>29:0</t>
   </si>
   <si>
     <t>0</t>
@@ -275,9 +299,33 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
+    <t>جل فاتيكا امبوبه</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -293,12 +341,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -329,16 +383,13 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 3:43 PM</t>
+    <t>Friday, 5 September, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1309,7 +1360,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1319,14 +1370,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1335,14 +1386,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1352,14 +1403,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1375,7 +1426,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1385,14 +1436,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1401,14 +1452,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1418,14 +1469,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1434,14 +1485,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1502,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,14 +1518,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1484,14 +1535,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1500,14 +1551,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1517,14 +1568,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1540,7 +1591,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1554,10 +1605,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1566,14 +1617,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1583,11 +1634,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1599,14 +1650,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,14 +1667,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,28 +1683,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1665,31 +1716,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,31 +1749,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,31 +1782,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,24 +1815,24 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1810,7 +1861,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1837,59 +1888,257 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>33</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>94</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c t="s" r="Q33" s="12">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1515.9300000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>109</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>12</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>94</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>111</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>52</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>94</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>116</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>94</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>120</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>94</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>121</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>97</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>94</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>124</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2097.9299999999998</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>126</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>127</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>128</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2033,10 +2282,40 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -59,6 +59,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -143,16 +152,28 @@
     <t>94.0500</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
@@ -266,9 +287,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -338,7 +356,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -389,7 +407,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 5:36 PM</t>
+    <t>Friday, 5 September, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1081,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1073,14 +1091,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1089,14 +1107,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1106,14 +1124,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1129,7 +1147,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1139,14 +1157,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1155,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1172,14 +1190,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1188,14 +1206,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1205,14 +1223,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1221,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1238,14 +1256,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1254,14 +1272,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1271,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1287,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1304,14 +1322,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1320,14 +1338,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1344,7 +1362,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1370,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1411,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1410,7 +1428,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1426,7 +1444,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1459,7 +1477,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1476,7 +1494,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1492,7 +1510,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,14 +1520,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1518,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1535,11 +1553,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1568,14 +1586,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1638,10 +1656,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1740,7 +1758,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1756,7 +1774,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1782,31 +1800,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,31 +1833,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,31 +1866,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1881,31 +1899,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1921,21 +1939,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1947,31 +1965,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1987,13 +2005,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2001,10 +2019,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,20 +2031,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2053,21 +2071,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2079,66 +2097,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2097.9299999999998</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>126</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>100</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>127</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>103</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>100</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>130</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2175.4499999999998</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>132</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>133</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>134</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2312,10 +2396,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -347,33 +359,36 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
@@ -407,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 5:46 PM</t>
+    <t>Friday, 5 September, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1388,14 +1403,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1411,7 +1426,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1421,14 +1436,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1437,14 +1452,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1461,7 +1476,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1477,7 +1492,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,14 +1502,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1518,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,14 +1535,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,7 +1558,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1560,7 +1575,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1584,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,11 +1601,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1602,14 +1617,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,7 +1634,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1642,7 +1657,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1667,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,11 +1700,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>23</v>
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1857,7 +1872,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1879,18 +1894,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,31 +1914,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,24 +1947,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1972,24 +1987,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,7 +2013,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2011,18 +2026,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,31 +2046,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,28 +2079,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2097,28 +2112,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2130,28 +2145,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2163,66 +2178,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2175.4499999999998</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>132</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>133</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>134</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>107</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>104</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>135</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2194.4499999999998</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>137</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>138</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>139</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2406,10 +2454,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 5:52 PM</t>
+    <t>Friday, 5 September, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -104,6 +113,27 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -131,9 +161,6 @@
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>182.00</t>
   </si>
   <si>
@@ -161,9 +188,6 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -263,12 +287,30 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
     <t>96.00</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -278,6 +320,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -317,15 +368,21 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
     <t>29:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -422,7 +479,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 5:53 PM</t>
+    <t>Friday, 5 September, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1179,7 +1236,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1195,7 +1252,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1205,14 +1262,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1221,14 +1278,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1238,14 +1295,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1254,14 +1311,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1271,11 +1328,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>23</v>
@@ -1287,14 +1344,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1304,11 +1361,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>23</v>
@@ -1320,14 +1377,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1337,14 +1394,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1353,14 +1410,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1370,14 +1427,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1386,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1403,11 +1460,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -1419,14 +1476,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1493,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1452,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1526,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1485,14 +1542,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1502,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1518,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1535,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1551,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1568,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1601,11 +1658,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1617,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1650,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,14 +1740,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,14 +1757,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1723,7 +1780,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1756,7 +1813,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1822,24 +1879,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -1898,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1914,31 +1971,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1947,31 +2004,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1980,28 +2037,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2013,31 +2070,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2046,31 +2103,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2112,31 +2169,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,31 +2202,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,28 +2235,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2211,66 +2268,297 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2194.4499999999998</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>46</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>94</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>117</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>46</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>94</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>137</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>139</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>94</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>140</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>71</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>94</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>143</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>146</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>94</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>147</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>149</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>150</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>94</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>151</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>153</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>126</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>94</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>154</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2510.5300000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>156</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>157</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>158</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2459,10 +2747,45 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -188,6 +197,15 @@
     <t>36.00</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -227,9 +245,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -245,9 +260,6 @@
     <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>432.0000</t>
   </si>
   <si>
@@ -290,7 +302,7 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>-23:-3</t>
   </si>
   <si>
     <t>0</t>
@@ -299,6 +311,12 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>2943.0000</t>
+  </si>
+  <si>
+    <t>27:1</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -413,6 +431,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -479,7 +509,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:01 PM</t>
+    <t>Friday, 5 September, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1269,7 +1299,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1285,7 +1315,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1295,14 +1325,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1311,14 +1341,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1328,11 +1358,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>23</v>
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1384,7 +1414,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1427,14 +1457,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1483,7 +1513,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1509,14 +1539,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1526,14 +1556,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1563,10 +1593,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,11 +1655,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1688,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,11 +1721,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1773,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1790,14 +1820,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1806,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,11 +1853,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1872,31 +1902,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,11 +1952,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -1938,31 +1968,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,11 +2018,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2004,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,11 +2051,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2044,7 +2074,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2061,7 +2091,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2077,7 +2107,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2094,7 +2124,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2110,7 +2140,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2127,7 +2157,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2143,7 +2173,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2169,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2202,31 +2232,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2235,31 +2265,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,31 +2298,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,31 +2331,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2341,24 +2371,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,28 +2397,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2400,31 +2430,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,20 +2463,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2457,7 +2487,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2473,21 +2503,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2499,66 +2529,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2510.5300000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>156</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>98</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>157</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>158</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>159</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>160</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>98</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>161</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>163</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>132</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>98</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>164</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>5606.3699999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>166</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>167</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>168</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2782,10 +2911,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -302,19 +302,13 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>-23:-3</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>108.00</t>
-  </si>
-  <si>
-    <t>2943.0000</t>
-  </si>
-  <si>
-    <t>27:1</t>
   </si>
   <si>
     <t>PANTOPI 40MG 14 TAB</t>
@@ -1989,10 +1983,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,7 +1995,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2018,7 +2012,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2034,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2067,7 +2061,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2084,11 +2078,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2100,7 +2094,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2117,11 +2111,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2133,7 +2127,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2150,11 +2144,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2166,7 +2160,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2183,11 +2177,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2199,7 +2193,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2216,11 +2210,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2232,14 +2226,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2243,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2265,7 +2259,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2282,11 +2276,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2298,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,14 +2325,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2342,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2364,14 +2358,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2375,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2397,14 +2391,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2408,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2430,7 +2424,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2447,14 +2441,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,7 +2457,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2480,11 +2474,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>84</v>
@@ -2496,7 +2490,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2513,11 +2507,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2529,7 +2523,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,11 +2540,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2562,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2595,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2606,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2628,14 +2622,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,11 +2639,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2657,13 +2651,13 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>5606.3699999999999</v>
+        <v>2690.3699999999999</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2671,13 +2665,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>EXTRA PROTEIN POWDER 10 SACHETS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -281,6 +290,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LOHYDRAN 10 PACKETS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -359,6 +380,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -503,7 +533,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:09 PM</t>
+    <t>Friday, 5 September, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1837,7 +1867,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1870,7 +1900,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,11 +1910,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,11 +1943,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1962,20 +1992,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1983,10 +2013,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,11 +2042,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2028,28 +2058,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2061,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,11 +2108,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2094,14 +2124,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,11 +2141,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2127,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2144,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2160,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,14 +2207,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2240,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2250,7 +2280,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2299,24 +2329,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2325,31 +2355,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,31 +2388,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2421,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,31 +2454,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2464,24 +2494,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,28 +2520,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2523,31 +2553,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,20 +2586,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2580,7 +2610,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2596,21 +2626,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2622,66 +2652,165 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2690.3699999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>164</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>105</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>165</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>167</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>168</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>105</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>169</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>171</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>140</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>105</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>172</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2922.9699999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>174</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>175</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>176</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2920,10 +3049,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -389,6 +398,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -458,9 +479,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -482,6 +500,12 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -503,9 +527,6 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -533,7 +554,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:13 PM</t>
+    <t>Friday, 5 September, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,7 +2053,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2058,28 +2079,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2091,28 +2112,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,11 +2195,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2197,7 +2218,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2230,7 +2251,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2247,7 +2268,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2263,7 +2284,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2296,7 +2317,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2313,7 +2334,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2329,7 +2350,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2379,7 +2400,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2395,7 +2416,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2434,7 +2455,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2445,7 +2466,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,31 +2475,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2487,31 +2508,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2533,15 +2554,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2553,31 +2574,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2586,31 +2607,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2619,31 +2640,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2659,13 +2680,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2676,7 +2697,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2698,15 +2719,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2718,28 +2739,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2751,66 +2772,165 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2922.9699999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>171</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>164</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>108</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>172</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>174</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>175</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>108</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>176</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>178</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>147</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>108</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>179</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3023.52</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>181</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>182</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>183</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3064,10 +3184,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -329,6 +329,12 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -347,6 +353,15 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -554,7 +569,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:16 PM</t>
+    <t>Friday, 5 September, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2125,18 +2140,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2145,20 +2160,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2166,7 +2181,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2185,7 +2200,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,11 +2210,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2218,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2235,7 +2250,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2251,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2261,11 +2276,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,11 +2507,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2508,31 +2523,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2541,31 +2556,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2574,31 +2589,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,28 +2622,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2640,31 +2655,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2680,13 +2695,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2697,7 +2712,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2713,24 +2728,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2746,13 +2761,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2763,7 +2778,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2779,21 +2794,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2805,28 +2820,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2838,28 +2853,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2871,66 +2886,132 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>180</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3023.52</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>110</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>181</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>182</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>183</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>152</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>110</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3089.52</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>186</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>187</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>188</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3199,10 +3280,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:29 PM</t>
+    <t>Friday, 5 September, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:31 PM</t>
+    <t>Friday, 5 September, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -569,7 +578,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:50 PM</t>
+    <t>Friday, 5 September, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2233,7 +2242,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2266,7 +2275,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2332,7 +2341,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2365,7 +2374,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2431,7 +2440,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2448,7 +2457,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2530,7 +2539,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,7 +2589,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,24 +2605,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2672,11 +2681,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2728,7 +2737,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,7 +2763,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2837,11 +2846,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2860,7 +2869,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2893,7 +2902,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2926,7 +2935,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2980,38 +2989,71 @@
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3089.52</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>186</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>155</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>110</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>187</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>188</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3254.52</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>189</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>190</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>191</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3290,10 +3332,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:58 PM</t>
+    <t>Friday, 5 September, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -221,162 +233,165 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>EXTRA PROTEIN POWDER 10 SACHETS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LOHYDRAN 10 PACKETS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>432.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>EXTRA PROTEIN POWDER 10 SACHETS</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LOHYDRAN 10 PACKETS</t>
-  </si>
-  <si>
-    <t>2:7</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS SHAMPOO 450ML</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -482,46 +497,52 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا امبوبه</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>58:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>جل فاتيكا امبوبه</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -546,6 +567,15 @@
   </si>
   <si>
     <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
@@ -1269,7 +1299,7 @@
         <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1278,14 +1308,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1302,7 +1332,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1311,14 +1341,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1335,7 +1365,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1344,7 +1374,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1361,14 +1391,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1377,7 +1407,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1434,7 +1464,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1467,7 +1497,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1483,7 +1513,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1509,14 +1539,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1533,7 +1563,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1566,7 +1596,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1582,7 +1612,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1632,7 +1662,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1662,10 +1692,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1731,7 +1761,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1780,7 +1810,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1790,14 +1820,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1806,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,14 +1919,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1922,14 +1952,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1938,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1955,11 +1985,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,11 +2018,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2004,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2061,7 +2091,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,14 +2117,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2103,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2120,14 +2150,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2136,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2153,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2169,31 +2199,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>22</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2202,31 +2232,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,11 +2315,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2301,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,14 +2414,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2400,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,11 +2480,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,14 +2579,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,31 +2661,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2677,18 +2707,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,31 +2727,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2737,21 +2767,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2770,24 +2800,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,31 +2826,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,28 +2925,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2928,28 +2958,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2961,20 +2991,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3001,59 +3031,191 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>187</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>188</v>
       </c>
-      <c t="s" r="Q61" s="12">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>115</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>21</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>189</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>179</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>115</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>190</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3254.52</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>189</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>190</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>191</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>193</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>115</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>194</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>160</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>115</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>197</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3637.2800000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>199</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>200</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>201</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3337,10 +3499,30 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 6:59 PM</t>
+    <t>Friday, 5 September, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:15 PM</t>
+    <t>Friday, 5 September, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -524,9 +533,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -569,6 +575,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -608,7 +623,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:24 PM</t>
+    <t>Friday, 5 September, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1975,7 +1990,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2008,7 +2023,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2041,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,11 +2066,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2157,7 +2172,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,7 +2188,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,31 +2247,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,28 +2280,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2338,7 +2353,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2371,7 +2386,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,7 +2429,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2437,7 +2452,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2470,7 +2485,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2487,7 +2502,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2536,7 +2551,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2553,7 +2568,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2619,7 +2634,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2635,7 +2650,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2685,7 +2700,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2701,24 +2716,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,31 +2742,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,31 +2775,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2806,7 +2821,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2814,10 +2829,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,31 +2841,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,31 +2874,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>164</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2905,18 +2920,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,31 +2940,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2965,21 +2980,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2991,28 +3006,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3024,31 +3039,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,31 +3072,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,31 +3105,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3136,18 +3151,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,66 +3171,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3637.2800000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>197</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>198</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>118</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>199</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>201</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>163</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>118</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>202</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3749.9000000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>204</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>205</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>206</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3519,10 +3600,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:28 PM</t>
+    <t>Friday, 5 September, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -338,6 +338,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NEUROTON 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -374,9 +386,6 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>PENDULINE KIDS SHAMPOO 450ML</t>
   </si>
   <si>
@@ -623,7 +632,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:29 PM</t>
+    <t>Friday, 5 September, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2188,7 +2197,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2205,7 +2214,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2287,21 +2296,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2346,20 +2355,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2367,10 +2376,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,11 +2504,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,11 +2669,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2742,31 +2751,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>163</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2775,31 +2784,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,31 +2817,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,28 +2850,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -2874,20 +2883,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2895,10 +2904,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,31 +2916,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>167</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2947,24 +2956,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,31 +2982,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,31 +3015,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,28 +3048,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3072,28 +3081,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3105,31 +3114,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,31 +3147,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3178,24 +3187,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,31 +3213,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,66 +3246,132 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>201</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>122</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>202</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3749.9000000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>204</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>166</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>122</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>205</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3880.5500000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>207</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>208</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>209</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3610,10 +3685,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:30 PM</t>
+    <t>Friday, 5 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:32 PM</t>
+    <t>Friday, 5 September, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -296,6 +296,12 @@
     <t>200.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -308,7 +314,13 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
   </si>
   <si>
     <t>LOHYDRAN 10 PACKETS</t>
@@ -632,7 +644,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:35 PM</t>
+    <t>Friday, 5 September, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2077,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,11 +2087,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,7 +2120,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2131,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2263,7 +2275,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2280,7 +2292,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2306,11 +2318,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2362,21 +2374,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2421,31 +2433,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,11 +2582,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,11 +2714,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,11 +2747,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -2817,31 +2829,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,20 +2862,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2871,10 +2883,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,31 +2895,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2916,28 +2928,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2949,31 +2961,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2982,31 +2994,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,31 +3027,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,31 +3060,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,31 +3093,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,28 +3126,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3147,28 +3159,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3180,31 +3192,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3220,24 +3232,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,31 +3258,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,31 +3291,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3312,66 +3324,132 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>204</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>205</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>126</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>206</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3880.5500000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>208</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>170</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>126</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>209</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3955.5500000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>211</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>212</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>213</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3695,10 +3773,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -644,7 +644,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:37 PM</t>
+    <t>Friday, 5 September, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -137,9 +152,6 @@
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>59.4000</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -407,6 +416,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>QUITAPEX 25MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -431,6 +449,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -557,7 +584,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -644,7 +671,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:42 PM</t>
+    <t>Friday, 5 September, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1450,7 +1477,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1460,14 +1487,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1476,7 +1503,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1493,14 +1520,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1509,14 +1536,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1526,14 +1553,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1559,11 +1586,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>27</v>
@@ -1575,14 +1602,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1592,11 +1619,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>27</v>
@@ -1608,14 +1635,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1632,7 +1659,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1665,7 +1692,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1681,7 +1708,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1691,11 +1718,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>27</v>
@@ -1707,14 +1734,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1731,7 +1758,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1761,10 +1788,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1773,14 +1800,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1830,7 +1857,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1879,7 +1906,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1889,14 +1916,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1912,7 +1939,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1922,14 +1949,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1945,7 +1972,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1978,7 +2005,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2044,7 +2071,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2077,7 +2104,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,11 +2114,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,7 +2147,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2143,7 +2170,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,11 +2180,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2186,11 +2213,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2209,7 +2236,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2279,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2308,7 +2335,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,11 +2378,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2374,7 +2401,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,11 +2411,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2433,31 +2460,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,28 +2493,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2539,7 +2566,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2572,7 +2599,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,11 +2609,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,7 +2675,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2671,7 +2698,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2688,7 +2715,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2704,7 +2731,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2737,7 +2764,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2770,7 +2797,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,11 +2807,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2796,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2840,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2906,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,31 +2922,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,28 +2955,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2961,31 +2988,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,31 +3021,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3034,21 +3061,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3060,31 +3087,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3153,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,31 +3186,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3199,13 +3226,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3216,7 +3243,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,28 +3252,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3265,24 +3292,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,31 +3318,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,28 +3351,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3357,31 +3384,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3397,59 +3424,158 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>210</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3955.5500000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>197</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>129</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>211</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>213</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>214</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>129</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>215</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>179</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>129</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>218</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4048.8600000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>220</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>221</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>222</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3783,10 +3909,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:44 PM</t>
+    <t>Friday, 5 September, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>AMRIZOLE-N 5 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -554,18 +563,12 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>جل فاتيكا امبوبه</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -671,7 +674,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:48 PM</t>
+    <t>Friday, 5 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1378,7 +1381,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1388,11 +1391,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1404,14 +1407,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1428,7 +1431,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1437,14 +1440,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1461,7 +1464,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1470,14 +1473,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1494,7 +1497,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1503,14 +1506,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1527,7 +1530,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1536,7 +1539,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1553,14 +1556,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1569,14 +1572,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1593,7 +1596,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1609,7 +1612,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1619,14 +1622,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1635,14 +1638,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1652,14 +1655,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1668,14 +1671,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1692,7 +1695,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1708,7 +1711,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1718,14 +1721,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1734,14 +1737,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1758,7 +1761,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1774,7 +1777,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1784,14 +1787,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1800,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1817,14 +1820,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1840,7 +1843,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1850,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1873,7 +1876,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1883,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1899,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1916,14 +1919,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1939,7 +1942,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1949,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1972,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1982,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2005,7 +2008,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2015,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2038,7 +2041,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2055,7 +2058,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2081,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2104,7 +2107,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2114,14 +2117,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2137,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2180,7 +2183,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2203,7 +2206,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2229,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2269,7 +2272,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2312,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2368,7 +2371,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2378,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,14 +2414,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2434,7 +2437,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2444,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2493,31 +2496,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>26</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,31 +2529,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2599,7 +2602,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2616,7 +2619,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2632,7 +2635,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2649,7 +2652,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,7 +2668,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2731,7 +2734,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2748,7 +2751,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2764,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2781,7 +2784,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,7 +2800,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2814,7 +2817,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2830,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2863,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2880,7 +2883,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2896,7 +2899,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2946,7 +2949,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2962,7 +2965,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3012,7 +3015,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3028,24 +3031,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,31 +3057,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,31 +3090,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,31 +3123,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3153,31 +3156,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3193,24 +3196,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,31 +3222,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,31 +3255,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,28 +3288,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3318,28 +3321,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3351,28 +3354,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3384,31 +3387,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3424,24 +3427,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,31 +3453,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,28 +3486,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3516,66 +3519,99 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>182</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>132</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>219</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4048.8600000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4078.8600000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
         <v>221</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
         <v>222</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>223</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3924,10 +3960,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -305,6 +314,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>EXTRA PROTEIN POWDER 10 SACHETS</t>
   </si>
   <si>
@@ -413,6 +431,15 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -452,9 +479,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -518,12 +542,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -587,7 +605,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -674,7 +692,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 7:50 PM</t>
+    <t>Friday, 5 September, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2059,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2058,7 +2076,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2074,7 +2092,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2140,7 +2158,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,11 +2234,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2253,7 +2271,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,11 +2300,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2463,7 +2481,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2480,11 +2498,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,28 +2547,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2569,7 +2587,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,31 +2613,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,11 +2663,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2701,7 +2719,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2762,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,11 +2795,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,7 +2828,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2833,7 +2851,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2894,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2927,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,31 +3075,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,28 +3108,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3123,31 +3141,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,31 +3174,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,28 +3207,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3222,31 +3240,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3255,20 +3273,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3279,7 +3297,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,31 +3306,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,31 +3339,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,31 +3372,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,28 +3405,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3420,31 +3438,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,31 +3471,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3493,13 +3511,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3526,24 +3544,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,66 +3570,165 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>204</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>138</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>220</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4078.8600000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>221</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>138</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>222</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>188</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>138</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>225</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4189.21</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>227</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>228</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>229</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3965,10 +4082,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -602,6 +602,12 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -617,9 +623,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -692,7 +695,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:20 PM</t>
+    <t>Friday, 5 September, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3313,7 +3316,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3327,10 +3330,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3339,7 +3342,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>188</v>
@@ -3372,7 +3375,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3389,14 +3392,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3438,7 +3441,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3455,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3471,7 +3474,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3504,7 +3507,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3521,11 +3524,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3537,7 +3540,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3603,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3636,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3656,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3686,11 +3689,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3698,13 +3701,13 @@
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="P79" s="13">
-        <v>4189.21</v>
+        <v>4209.21</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c t="s" r="A80" s="14">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3712,13 +3715,13 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c t="s" r="G80" s="15">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
       <c t="s" r="K80" s="17">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -602,27 +602,27 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -695,7 +695,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:21 PM</t>
+    <t>Friday, 5 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3316,7 +3316,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>100</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>188</v>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>197</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -359,6 +371,9 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>LOHYDRAN 10 PACKETS</t>
   </si>
   <si>
@@ -398,6 +413,15 @@
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -593,9 +617,6 @@
     <t>58:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -695,7 +716,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:28 PM</t>
+    <t>Friday, 5 September, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,11 +2093,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2154,7 +2175,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2211,7 +2232,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,11 +2324,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,11 +2357,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2409,7 +2430,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,7 +2571,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2567,11 +2588,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2590,7 +2611,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,11 +2621,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2616,28 +2637,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2666,11 +2687,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,14 +2720,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2722,24 +2743,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2854,7 +2875,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,11 +2885,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,7 +2951,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2953,7 +2974,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,11 +3017,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,11 +3050,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3118,7 +3139,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3168,7 +3189,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3184,24 +3205,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,28 +3231,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3243,31 +3264,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3289,7 +3310,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3300,7 +3321,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,20 +3330,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3330,10 +3351,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3349,24 +3370,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3382,24 +3403,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>203</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,31 +3495,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,28 +3528,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3540,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3580,24 +3601,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,28 +3627,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3639,31 +3660,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3672,66 +3693,165 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>212</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>146</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>226</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4209.21</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>228</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>229</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>146</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>230</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>196</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>146</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4265.8400000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4100,10 +4220,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>-3:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -3436,7 +3436,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3450,10 +3450,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>4265.8400000000001</v>
+        <v>4425.8400000000001</v>
       </c>
       <c r="Q82" s="13"/>
     </row>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -92,12 +92,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -605,6 +614,12 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>جل فاتيكا امبوبه</t>
   </si>
   <si>
@@ -668,15 +683,21 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فاتيكا بديل  زيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -707,6 +728,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -716,7 +740,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:29 PM</t>
+    <t>Friday, 5 September, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1506,7 +1530,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1515,14 +1539,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1532,14 +1556,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1555,7 +1579,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1565,14 +1589,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1581,14 +1605,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1598,14 +1622,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1638,7 +1662,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1654,7 +1678,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1664,14 +1688,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1680,14 +1704,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1704,7 +1728,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1720,7 +1744,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1737,7 +1761,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1753,7 +1777,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1770,7 +1794,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1786,7 +1810,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1796,14 +1820,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1812,14 +1836,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1836,7 +1860,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1852,7 +1876,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1862,14 +1886,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1878,14 +1902,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1895,14 +1919,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1918,7 +1942,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1928,14 +1952,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1951,7 +1975,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1961,14 +1985,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,14 +2018,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2017,7 +2041,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2050,7 +2074,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2084,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,14 +2100,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2093,14 +2117,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2116,7 +2140,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,7 +2150,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2149,7 +2173,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2166,7 +2190,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2182,7 +2206,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2199,7 +2223,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2225,14 +2249,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2248,7 +2272,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2281,7 +2305,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2314,7 +2338,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,11 +2348,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2357,7 +2381,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2380,7 +2404,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,11 +2414,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,11 +2447,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2446,7 +2470,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2480,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2496,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2578,7 +2602,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2604,7 +2628,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2621,14 +2645,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2644,7 +2668,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2661,7 +2685,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2677,7 +2701,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,31 +2760,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,31 +2793,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2809,7 +2833,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2875,7 +2899,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2892,7 +2916,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2908,7 +2932,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2925,7 +2949,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2941,7 +2965,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2991,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3040,7 +3064,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3057,7 +3081,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3073,7 +3097,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3090,7 +3114,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3106,7 +3130,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3139,7 +3163,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3156,7 +3180,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3172,7 +3196,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,14 +3288,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3288,7 +3312,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3304,24 +3328,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,31 +3354,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,31 +3387,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3396,31 +3420,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,31 +3453,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,31 +3486,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>196</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,31 +3519,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,31 +3552,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,28 +3585,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3594,28 +3618,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3627,28 +3651,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3660,31 +3684,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,28 +3717,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3726,28 +3750,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3759,31 +3783,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,66 +3816,198 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>232</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>217</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>149</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4425.8400000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>235</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>236</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>149</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>237</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>239</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>184</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>149</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>29</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>240</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>199</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>149</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>241</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4705.8400000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>243</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>244</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>245</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4391,30 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -371,6 +380,15 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -644,21 +662,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -740,7 +749,16 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:36 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>Friday, 5 September, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1645,7 +1663,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1662,7 +1680,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1695,7 +1713,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1777,7 +1795,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1810,7 +1828,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1827,7 +1845,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1843,7 +1861,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1909,7 +1927,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>42</v>
@@ -1975,7 +1993,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2008,7 +2026,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2074,7 +2092,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2107,7 +2125,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2117,11 +2135,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,7 +2201,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2206,7 +2224,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2239,7 +2257,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2305,7 +2323,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2338,7 +2356,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2371,7 +2389,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2381,11 +2399,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2414,7 +2432,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2437,7 +2455,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2480,11 +2498,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2503,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2513,11 +2531,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2569,7 +2587,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,11 +2696,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,11 +2729,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2793,28 +2811,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2833,7 +2851,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2859,28 +2877,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>34</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2965,7 +2983,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2998,7 +3016,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,7 +3125,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3130,7 +3148,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3163,7 +3181,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3180,7 +3198,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3196,7 +3214,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3213,7 +3231,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3229,7 +3247,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,11 +3257,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,11 +3290,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,11 +3356,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3354,31 +3372,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,31 +3405,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3420,31 +3438,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3453,31 +3471,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3486,31 +3504,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,31 +3537,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3552,31 +3570,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3592,24 +3610,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,31 +3636,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,28 +3669,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3684,28 +3702,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3717,31 +3735,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,28 +3768,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3783,28 +3801,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>28</v>
@@ -3816,31 +3834,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3856,24 +3874,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,31 +3900,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,28 +3933,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3948,66 +3966,165 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>242</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4705.8400000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>190</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>155</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>29</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>243</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>205</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>155</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>244</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>246</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>247</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>155</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>248</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4815.8400000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>249</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>250</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>251</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4411,10 +4528,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
@@ -371,12 +380,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -659,6 +662,24 @@
     <t>-3:0</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -731,12 +752,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
@@ -758,7 +773,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:44 PM</t>
+    <t>Friday, 5 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1614,7 +1629,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1630,7 +1645,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1640,14 +1655,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1656,14 +1671,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1673,14 +1688,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1696,7 +1711,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1713,7 +1728,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1746,7 +1761,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1762,7 +1777,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1772,14 +1787,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1828,7 +1843,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1861,7 +1876,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1878,7 +1893,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1894,7 +1909,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1904,14 +1919,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1960,7 +1975,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1970,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,14 +2018,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2026,7 +2041,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2059,7 +2074,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,14 +2117,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2125,7 +2140,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2158,7 +2173,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,11 +2183,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>34</v>
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2224,7 +2239,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2234,7 +2249,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2257,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2274,7 +2289,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2290,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2356,7 +2371,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2389,7 +2404,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2422,7 +2437,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,7 +2480,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2488,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,11 +2513,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2521,7 +2536,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2620,7 +2635,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2762,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,31 +2892,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,28 +2925,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2983,7 +2998,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,31 +3453,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,31 +3486,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>110</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,31 +3552,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,31 +3585,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,31 +3618,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3643,13 +3658,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3657,10 +3672,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,28 +3684,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3702,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3742,13 +3757,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3756,10 +3771,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,28 +3783,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3808,13 +3823,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3825,7 +3840,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3841,21 +3856,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3867,31 +3882,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,28 +3915,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -3933,28 +3948,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3966,31 +3981,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3999,31 +4014,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,28 +4047,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4065,66 +4080,165 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4815.8400000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>247</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>191</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>156</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>29</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>248</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>206</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>156</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>249</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>250</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>251</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>252</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>156</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>253</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4949.8400000000001</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>254</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>255</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>256</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4543,10 +4657,25 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -522,6 +522,12 @@
   </si>
   <si>
     <t>42.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
   </si>
   <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
@@ -3130,7 +3136,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3163,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,7 +3179,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3196,7 +3202,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,31 +3492,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>206</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>113</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3639,10 +3645,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3658,7 +3664,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,7 +3756,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>191</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,7 +3796,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3823,7 +3829,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,11 +3905,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4054,7 +4060,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,11 +4103,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4120,7 +4126,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4163,11 +4169,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4196,49 +4202,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4949.8400000000001</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>253</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>254</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>156</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>255</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4973.6000000000004</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>256</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>257</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>258</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4672,10 +4711,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:50 PM</t>
+    <t>Friday, 5 September, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>70.9500</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -497,6 +506,9 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
+    <t>PARAMOL 120MG/5ML SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>PENDULINE KIDS SHAMPOO 450ML</t>
   </si>
   <si>
@@ -656,10 +668,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>58:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -779,7 +791,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 8:57 PM</t>
+    <t>Friday, 5 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1981,7 +1993,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2014,7 +2026,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2057,11 +2069,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>45</v>
@@ -2080,7 +2092,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2090,14 +2102,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2113,7 +2125,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2156,14 +2168,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2179,7 +2191,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2212,7 +2224,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,11 +2234,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>34</v>
@@ -2238,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2278,7 +2290,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2288,7 +2300,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2311,7 +2323,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2328,7 +2340,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2344,7 +2356,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2399,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2410,7 +2422,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2443,7 +2455,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2476,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,11 +2498,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,11 +2531,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2552,11 +2564,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2608,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2625,7 +2637,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2641,7 +2653,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2773,7 +2785,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,7 +2811,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2839,7 +2851,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2856,7 +2868,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2872,7 +2884,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,31 +2943,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,28 +2976,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -3004,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3070,7 +3082,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3125,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,11 +3158,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3202,7 +3214,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3235,7 +3247,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3525,31 +3537,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,20 +3570,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3579,10 +3591,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,31 +3603,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,31 +3636,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,31 +3669,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,31 +3702,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,31 +3735,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,31 +3768,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3796,13 +3808,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3810,10 +3822,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,31 +3834,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3862,13 +3874,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3876,10 +3888,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,28 +3900,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3921,28 +3933,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3961,13 +3973,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3978,7 +3990,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3994,21 +4006,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4027,21 +4039,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>28</v>
@@ -4053,31 +4065,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>116</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,31 +4098,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4119,31 +4131,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,28 +4164,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4185,28 +4197,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4225,59 +4237,125 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4973.6000000000004</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>254</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>212</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>159</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>255</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>256</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>257</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>258</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>159</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>259</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5058.6000000000004</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>260</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>261</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>262</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4716,10 +4794,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -287,6 +287,12 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -296,6 +302,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -359,9 +374,6 @@
     <t>432.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -791,7 +803,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:07 PM</t>
+    <t>Friday, 5 September, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,14 +2229,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2246,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,7 +2394,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2653,7 +2665,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,11 +2675,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2719,7 +2731,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2851,7 +2863,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2884,7 +2896,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2983,21 +2995,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3042,28 +3054,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3148,7 +3160,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3280,7 +3292,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,11 +3302,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3313,7 +3325,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,11 +3368,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3401,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,11 +3533,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3603,31 +3615,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>212</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,20 +3648,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3657,10 +3669,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,31 +3681,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,31 +3714,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,31 +3747,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,31 +3780,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,31 +3813,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,31 +3846,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3874,13 +3886,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3888,10 +3900,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,31 +3912,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3940,13 +3952,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3954,10 +3966,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3966,28 +3978,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3999,28 +4011,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4039,13 +4051,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4056,7 +4068,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4072,21 +4084,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4105,21 +4117,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4131,31 +4143,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,31 +4176,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,31 +4209,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4230,28 +4242,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4263,28 +4275,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4303,59 +4315,125 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5058.6000000000004</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>258</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>216</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>163</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>259</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>260</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>261</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>262</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>163</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>263</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5190.6000000000004</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>264</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>265</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>266</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4804,10 +4882,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -803,7 +812,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:08 PM</t>
+    <t>Friday, 5 September, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2641,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2748,7 +2757,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2764,7 +2773,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2896,7 +2905,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,7 +2931,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2979,7 +2988,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,11 +3014,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,31 +3063,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3087,28 +3096,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3127,7 +3136,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,11 +3146,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3226,7 +3235,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3243,7 +3252,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3259,7 +3268,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3276,7 +3285,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3292,7 +3301,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,11 +3344,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3368,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3424,7 +3433,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3441,7 +3450,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3457,7 +3466,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3474,7 +3483,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3490,7 +3499,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3523,7 +3532,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3540,7 +3549,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3672,7 +3681,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3688,24 +3697,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,31 +3723,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>93</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3760,18 +3769,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3780,31 +3789,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3826,18 +3835,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,31 +3855,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3886,13 +3895,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3919,24 +3928,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3945,7 +3954,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3958,18 +3967,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>201</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,31 +3987,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,28 +4020,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4051,13 +4060,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4084,21 +4093,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4110,31 +4119,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4150,24 +4159,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,31 +4185,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,28 +4218,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4242,31 +4251,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4282,21 +4291,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4308,28 +4317,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4341,28 +4350,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4381,59 +4390,92 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5190.6000000000004</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>264</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>265</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>166</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>266</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5256.6000000000004</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>267</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>268</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>269</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4892,10 +4934,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -410,6 +410,15 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -812,7 +821,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:09 PM</t>
+    <t>Friday, 5 September, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2707,7 +2716,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2773,7 +2782,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2790,7 +2799,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2938,7 +2947,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2964,7 +2973,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3004,7 +3013,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,11 +3056,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3096,31 +3105,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3129,28 +3138,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3169,7 +3178,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3268,7 +3277,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3285,7 +3294,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3301,7 +3310,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3318,7 +3327,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3334,7 +3343,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,11 +3386,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3466,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3483,7 +3492,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3516,7 +3525,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3532,7 +3541,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3565,7 +3574,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3582,7 +3591,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3598,7 +3607,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3714,7 +3723,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3730,24 +3739,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,31 +3765,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>222</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>93</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3802,18 +3811,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3868,18 +3877,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3928,13 +3937,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3961,24 +3970,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,7 +3996,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4000,18 +4009,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>204</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,28 +4062,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4093,13 +4102,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4126,21 +4135,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4152,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4192,24 +4201,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,31 +4227,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,28 +4260,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>28</v>
@@ -4284,31 +4293,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4324,21 +4333,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4350,28 +4359,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4383,28 +4392,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4423,59 +4432,92 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5256.6000000000004</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>267</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>268</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>169</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>269</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5269.9650000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>270</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>271</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>272</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4939,10 +4981,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -821,7 +821,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:10 PM</t>
+    <t>Friday, 5 September, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -821,7 +821,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:13 PM</t>
+    <t>Friday, 5 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -392,6 +392,18 @@
     <t>200.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -632,15 +644,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -821,7 +824,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:19 PM</t>
+    <t>Friday, 5 September, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2617,7 +2620,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,14 +2729,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2792,14 +2795,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2894,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,7 +3009,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,31 +3141,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3178,21 +3181,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3204,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3600,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3657,7 +3660,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3673,7 +3676,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3706,7 +3709,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3752,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,31 +3768,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,31 +3801,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>93</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,31 +3834,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,31 +3867,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,31 +3900,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,31 +3933,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,28 +3966,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3996,31 +3999,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4042,18 +4045,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>207</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,31 +4065,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,28 +4098,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4128,28 +4131,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4161,28 +4164,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4201,24 +4204,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,31 +4230,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4267,24 +4270,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4300,21 +4303,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4326,31 +4329,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,28 +4362,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4392,28 +4395,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4432,21 +4435,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4458,66 +4461,99 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5269.9650000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>268</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>269</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>173</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>270</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5295.9650000000001</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
         <v>271</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
         <v>272</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>273</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4986,10 +5022,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:22 PM</t>
+    <t>Friday, 5 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -149,13 +149,34 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CEFAXONE 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>345.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
@@ -290,9 +311,6 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -353,9 +371,6 @@
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>22.7700</t>
   </si>
   <si>
@@ -695,9 +710,6 @@
     <t>جل فاتيكا امبوبه</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -731,6 +743,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -818,13 +836,10 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:23 PM</t>
+    <t>Friday, 5 September, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1762,7 +1777,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1772,14 +1787,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1805,14 +1820,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1821,7 +1836,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1871,14 +1886,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1904,11 +1919,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>34</v>
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1937,11 +1952,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>34</v>
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1970,14 +1985,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2003,14 +2018,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2036,11 +2051,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>34</v>
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2069,11 +2084,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2102,14 +2117,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2118,14 +2133,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2135,11 +2150,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>45</v>
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2249,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2267,14 +2282,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2498,11 +2513,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2514,7 +2529,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2663,11 +2678,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,14 +2777,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,7 +2982,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2993,11 +3008,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3042,7 +3057,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3174,31 +3189,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3207,28 +3222,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,11 +3338,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,11 +3470,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,11 +3503,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,11 +3635,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3801,31 +3816,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>223</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3847,18 +3862,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>93</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3867,31 +3882,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,31 +3915,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,31 +3948,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3966,31 +3981,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,28 +4014,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4032,31 +4047,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,31 +4080,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4098,31 +4113,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,31 +4146,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,28 +4179,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4204,21 +4219,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4230,31 +4245,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4263,28 +4278,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4296,28 +4311,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4329,31 +4344,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4362,31 +4377,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4395,31 +4410,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4428,28 +4443,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4461,28 +4476,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4494,66 +4509,132 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5295.9650000000001</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>271</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>228</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>178</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>272</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>273</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>274</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>52</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>178</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>275</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5776.9650000000001</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>276</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>277</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>278</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5027,10 +5108,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -224,69 +224,75 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COPAD 10.000 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>70.9500</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COPAD 10.000 30 CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>215.00</t>
-  </si>
-  <si>
-    <t>70.9500</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -482,9 +488,6 @@
     <t>9.6000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -596,7 +599,7 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
@@ -839,7 +842,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:26 PM</t>
+    <t>Friday, 5 September, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1975,7 +1978,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1992,7 +1995,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2001,7 +2004,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2018,11 +2021,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>34</v>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>34</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2150,11 +2153,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>45</v>
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2183,11 +2186,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>45</v>
@@ -2199,7 +2202,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2216,11 +2219,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,11 +2252,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>34</v>
@@ -2265,7 +2268,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2298,14 +2301,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,11 +2318,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>42</v>
@@ -2331,14 +2334,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,11 +2351,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2364,7 +2367,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2381,11 +2384,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2397,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,11 +2417,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2430,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2480,11 +2483,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2496,7 +2499,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2562,7 +2565,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2579,11 +2582,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>55</v>
@@ -2595,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,11 +2648,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2711,11 +2714,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2727,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,11 +2747,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2760,7 +2763,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2810,11 +2813,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2843,11 +2846,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2859,7 +2862,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2876,11 +2879,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>34</v>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2925,7 +2928,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2991,14 +2994,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,11 +3011,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3024,7 +3027,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3057,7 +3060,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3090,7 +3093,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3107,11 +3110,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,11 +3143,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3156,7 +3159,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3222,24 +3225,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3255,7 +3258,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3288,7 +3291,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3305,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3338,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3437,11 +3440,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3474,10 +3477,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,7 +3489,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>34</v>
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3585,7 +3588,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3651,7 +3654,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3668,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,11 +3704,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>34</v>
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3816,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3849,31 +3852,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,28 +3885,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>55</v>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3928,7 +3931,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3948,28 +3951,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>55</v>
@@ -3981,24 +3984,24 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4014,7 +4017,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4027,15 +4030,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4047,28 +4050,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4080,28 +4083,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>50</v>
@@ -4113,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,20 +4182,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4225,15 +4228,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4245,28 +4248,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4278,28 +4281,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4311,7 +4314,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4324,15 +4327,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4357,7 +4360,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4377,28 +4380,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>47</v>
@@ -4410,20 +4413,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4431,7 +4434,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4443,28 +4446,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4476,28 +4479,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4509,20 +4512,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4542,28 +4545,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4575,7 +4578,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4588,15 +4591,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4604,13 +4607,13 @@
     </row>
     <row r="102" ht="25.5" customHeight="1">
       <c r="P102" s="13">
-        <v>5776.9650000000001</v>
+        <v>5800.7250000000004</v>
       </c>
       <c r="Q102" s="13"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c t="s" r="A103" s="14">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4618,13 +4621,13 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c t="s" r="G103" s="15">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="16"/>
       <c t="s" r="K103" s="17">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CIDOLUT DEPOT 250MG 1 AMP.</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DIACALDERM TOPICAL OINT. 20 GM</t>
   </si>
   <si>
@@ -380,6 +398,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -503,9 +530,6 @@
     <t>NEUROTON 30 TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -545,24 +569,18 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>108.00</t>
   </si>
   <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -632,6 +650,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -755,6 +782,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -830,19 +860,13 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:37 PM</t>
+    <t>Friday, 5 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1870,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1863,7 +1887,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1896,7 +1920,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1912,7 +1936,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1922,14 +1946,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1938,14 +1962,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1978,7 +2002,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1995,7 +2019,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2004,14 +2028,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,14 +2045,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2044,7 +2068,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2070,14 +2094,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2110,7 +2134,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2143,7 +2167,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>45</v>
@@ -2202,14 +2226,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2226,7 +2250,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2242,7 +2266,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2341,7 +2365,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2407,7 +2431,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2441,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2450,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2490,7 +2514,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2506,7 +2530,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,7 +2556,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,14 +2606,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,11 +2639,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2664,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2681,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2737,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2770,7 +2794,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2928,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3034,7 +3058,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,11 +3134,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,7 +3183,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3176,11 +3200,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3199,7 +3223,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,11 +3233,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3225,28 +3249,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3275,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3291,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,24 +3355,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3456,14 +3480,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3497,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,11 +3530,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3563,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3562,7 +3586,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3629,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,11 +3695,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>34</v>
@@ -3720,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3753,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3810,7 +3834,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3826,7 +3850,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3859,24 +3883,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,31 +3909,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,31 +3942,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,31 +3975,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,31 +4008,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4024,24 +4048,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4057,21 +4081,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4083,31 +4107,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,31 +4140,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4156,13 +4180,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4170,10 +4194,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,28 +4206,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4215,31 +4239,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4272,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4288,24 +4312,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,31 +4338,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4354,21 +4378,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4380,31 +4404,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,31 +4437,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4446,31 +4470,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4479,28 +4503,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4512,31 +4536,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4545,31 +4569,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4578,66 +4602,198 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5800.7250000000004</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>277</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>278</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>279</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>280</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>186</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>252</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>144</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>186</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>29</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>282</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>238</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>186</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>57</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>52</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>186</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>284</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6003.2349999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>285</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>286</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>287</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5121,10 +5277,30 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -281,324 +281,324 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>141.0750</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>EXTRA PROTEIN POWDER 10 SACHETS</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>LOHYDRAN 10 PACKETS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 30 TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PARAMOL 120MG/5ML SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>QUITAPEX 25MG 30 F.C.TAB</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>432.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>EXTRA PROTEIN POWDER 10 SACHETS</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>LOHYDRAN 10 PACKETS</t>
-  </si>
-  <si>
-    <t>2:7</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 30 TAB</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PARAMOL 120MG/5ML SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS SHAMPOO 450ML</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>QUITAPEX 25MG 30 F.C.TAB</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -782,7 +782,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -851,9 +851,6 @@
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
@@ -866,7 +863,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:55 PM</t>
+    <t>Friday, 5 September, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,7 +2197,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2210,14 +2207,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2226,14 +2223,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2243,11 +2240,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>45</v>
@@ -2259,7 +2256,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2276,11 +2273,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2292,14 +2289,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2309,11 +2306,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>34</v>
@@ -2325,7 +2322,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2358,14 +2355,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,11 +2372,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>42</v>
@@ -2391,7 +2388,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2408,11 +2405,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2424,7 +2421,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2441,11 +2438,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2457,7 +2454,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2474,11 +2471,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2490,14 +2487,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,11 +2504,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2523,14 +2520,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2544,7 +2541,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2556,7 +2553,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2573,11 +2570,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2589,7 +2586,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2610,7 +2607,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2622,7 +2619,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2639,11 +2636,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2655,7 +2652,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2672,11 +2669,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2688,7 +2685,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2705,11 +2702,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>55</v>
@@ -2721,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2738,11 +2735,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2754,7 +2751,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2771,11 +2768,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2787,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2804,11 +2801,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2837,11 +2834,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2853,7 +2850,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2870,11 +2867,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2886,7 +2883,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2919,7 +2916,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2936,11 +2933,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2952,7 +2949,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2969,11 +2966,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2985,7 +2982,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3002,11 +2999,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>34</v>
@@ -3018,7 +3015,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3035,11 +3032,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3051,7 +3048,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3084,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,11 +3098,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>75</v>
@@ -3117,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,11 +3131,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3150,7 +3147,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3167,11 +3164,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3183,7 +3180,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3216,7 +3213,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3233,11 +3230,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3249,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3266,11 +3263,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3282,7 +3279,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3299,11 +3296,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3315,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3348,7 +3345,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3361,15 +3358,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>45</v>
@@ -3381,7 +3378,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3398,11 +3395,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3414,7 +3411,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3431,11 +3428,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3447,7 +3444,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3464,11 +3461,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3480,7 +3477,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3497,11 +3494,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3513,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3586,7 +3583,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,7 +3626,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3652,7 +3649,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3685,7 +3682,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3850,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3883,7 +3880,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,11 +3890,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3916,7 +3913,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,11 +3923,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3982,7 +3979,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4021,7 +4018,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4054,7 +4051,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4087,7 +4084,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4120,11 +4117,11 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4153,11 +4150,11 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4186,7 +4183,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4213,13 +4210,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4252,7 +4249,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4260,7 +4257,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>50</v>
@@ -4285,7 +4282,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4293,10 +4290,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>257</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4318,7 +4315,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4329,7 +4326,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4351,7 +4348,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4384,7 +4381,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4411,13 +4408,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4450,7 +4447,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4458,7 +4455,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4483,7 +4480,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4516,7 +4513,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4549,7 +4546,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4582,7 +4579,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4590,7 +4587,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4615,7 +4612,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4642,13 +4639,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4668,20 +4665,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4701,7 +4698,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4714,7 +4711,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4734,7 +4731,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4747,11 +4744,11 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4763,13 +4760,13 @@
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="P106" s="13">
-        <v>6003.2349999999997</v>
+        <v>6052.2600000000002</v>
       </c>
       <c r="Q106" s="13"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c t="s" r="A107" s="14">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4777,13 +4774,13 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c t="s" r="G107" s="15">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="16"/>
       <c t="s" r="K107" s="17">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -464,6 +464,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -704,6 +713,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -716,154 +734,160 @@
     <t>امواس لورد</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>120.0000</t>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا امبوبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>57:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاتيكا بديل  زيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا امبوبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>57:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>-3:0</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاتيكا بديل  زيت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>معجون اسنان سيجنال 120 مل عرض</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>معجون حلاقه 55555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معجون سيجنال 120 مل </t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 9:56 PM</t>
+    <t>Friday, 5 September, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2890,7 +2914,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2956,7 +2980,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2982,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2999,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3022,7 +3046,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3039,7 +3063,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3055,7 +3079,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3065,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3081,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3147,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3164,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3213,7 +3237,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3253,7 +3277,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3270,7 +3294,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3286,7 +3310,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,11 +3320,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3312,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,31 +3369,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3378,31 +3402,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3517,7 +3541,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3567,7 +3591,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3583,7 +3607,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3675,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3715,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3732,7 +3756,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,7 +3789,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3781,7 +3805,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3814,7 +3838,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3847,7 +3871,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3864,7 +3888,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3880,7 +3904,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3996,7 +4020,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4012,24 +4036,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,28 +4128,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>55</v>
@@ -4137,31 +4161,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4177,24 +4201,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4210,24 +4234,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,31 +4260,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4276,24 +4300,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4335,31 +4359,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,31 +4392,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,31 +4425,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4441,21 +4465,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4474,13 +4498,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4491,7 +4515,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4507,21 +4531,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4533,7 +4557,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4546,18 +4570,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,28 +4590,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4599,28 +4623,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>261</v>
+        <v>55</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4632,31 +4656,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4665,31 +4689,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4698,28 +4722,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4731,66 +4755,165 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6052.2600000000002</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>284</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>285</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>286</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>143</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>188</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>29</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>289</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>188</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>57</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>290</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>52</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>188</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>291</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6289.2600000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>292</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>293</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>294</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5294,10 +5417,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACTRAPID HM 100 I.U./ML 5*3ML PENFILLS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>338.00</t>
+  </si>
+  <si>
+    <t>338.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -134,6 +146,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -236,9 +260,6 @@
     <t>71.2800</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -302,12 +323,6 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -497,6 +512,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTO TRI  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -524,9 +551,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -575,9 +599,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -887,7 +908,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:06 PM</t>
+    <t>Friday, 5 September, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1545,7 +1566,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1554,14 +1575,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1571,14 +1592,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1594,7 +1615,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1604,14 +1625,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1627,7 +1648,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1637,14 +1658,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1653,14 +1674,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1677,7 +1698,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1693,7 +1714,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1726,7 +1747,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1743,7 +1764,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1752,14 +1773,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1769,14 +1790,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1785,14 +1806,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1809,7 +1830,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1835,14 +1856,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1851,14 +1872,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1901,14 +1922,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1924,7 +1945,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,14 +1955,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1967,14 +1988,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2049,14 +2070,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2139,7 +2160,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2155,7 +2176,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2172,7 +2193,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2188,7 +2209,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,14 +2219,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2271,7 +2292,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2287,7 +2308,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2337,7 +2358,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2353,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2396,14 +2417,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2433,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2450,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2483,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2648,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2650,7 +2671,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2667,7 +2688,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2683,7 +2704,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,14 +2747,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2782,7 +2803,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2841,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,14 +2879,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,14 +2895,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2898,7 +2919,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2914,7 +2935,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,14 +2945,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3011,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,14 +3044,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3039,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,14 +3093,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3138,31 +3159,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3195,7 +3216,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3211,7 +3232,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3258,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3308,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3324,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3376,7 +3397,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,14 +3407,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,20 +3423,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3426,7 +3447,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3442,7 +3463,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,31 +3522,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3534,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3706,7 +3727,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3772,7 +3793,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3803,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3831,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,14 +3869,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3885,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3970,7 +3991,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4034,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4100,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,31 +4116,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,20 +4149,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4149,10 +4170,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,31 +4182,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,31 +4215,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>55</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4248,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,31 +4281,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,31 +4314,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,31 +4347,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,31 +4380,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,31 +4413,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4432,13 +4453,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4446,10 +4467,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,31 +4479,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,31 +4512,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,31 +4545,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4564,24 +4585,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4597,13 +4618,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4614,7 +4635,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4630,24 +4651,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,31 +4677,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,31 +4710,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,31 +4743,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,31 +4776,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,20 +4809,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4809,10 +4830,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4821,31 +4842,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4854,66 +4875,165 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6289.2600000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>292</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>293</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>294</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>148</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>168</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>33</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>295</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>296</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>168</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>65</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>297</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>60</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>168</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>298</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>7051.2600000000002</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>299</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>300</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>301</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5432,10 +5552,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -908,7 +908,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:09 PM</t>
+    <t>Friday, 5 September, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -722,6 +722,12 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -827,70 +833,70 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاتيكا بديل  زيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
     <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاتيكا بديل  زيت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>معجون اسنان سيجنال 120 مل عرض</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>معجون حلاقه 55555</t>
   </si>
   <si>
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
@@ -4090,7 +4096,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4104,10 +4110,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>32</v>
@@ -4149,7 +4155,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4166,11 +4172,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4182,7 +4188,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>38</v>
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>63</v>
@@ -4281,7 +4287,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4335,7 +4341,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>63</v>
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4380,7 +4386,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4413,7 +4419,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4446,7 +4452,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4463,11 +4469,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4479,7 +4485,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4496,7 +4502,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4512,7 +4518,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,7 +4551,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4562,7 +4568,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4611,7 +4617,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4644,7 +4650,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4661,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4677,7 +4683,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4710,7 +4716,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>32</v>
@@ -4743,7 +4749,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4776,7 +4782,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4793,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>55</v>
@@ -4809,14 +4815,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4865,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4875,14 +4881,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,11 +4898,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4908,7 +4914,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4974,7 +4980,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -4991,11 +4997,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5003,13 +5009,13 @@
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="P112" s="13">
-        <v>7051.2600000000002</v>
+        <v>7070.0900000000001</v>
       </c>
       <c r="Q112" s="13"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c t="s" r="A113" s="14">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5017,13 +5023,13 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c t="s" r="G113" s="15">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="16"/>
       <c t="s" r="K113" s="17">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:11 PM</t>
+    <t>Friday, 5 September, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -338,6 +338,9 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -362,9 +365,6 @@
     <t>88.00</t>
   </si>
   <si>
-    <t>88.0000</t>
-  </si>
-  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -524,6 +524,12 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -626,9 +632,6 @@
     <t>QUITAPEX 25MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -914,7 +917,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:13 PM</t>
+    <t>Friday, 5 September, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2446,7 +2449,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2460,10 +2463,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2493,7 +2496,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>50</v>
@@ -2505,7 +2508,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>38</v>
@@ -2538,7 +2541,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2555,11 +2558,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -3205,7 +3208,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3234,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3251,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,14 +3284,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3297,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,7 +3350,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3370,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,7 +3399,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3413,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,7 +3482,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3502,7 +3505,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3535,24 +3538,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,31 +3564,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3614,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>38</v>
@@ -3627,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3746,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3779,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,11 +3845,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>38</v>
@@ -3858,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,7 +3927,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3941,14 +3944,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3977,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3990,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4023,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4096,7 +4099,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,31 +4224,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>253</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>63</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4307,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4327,7 +4330,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4406,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,7 +4422,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4452,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,11 +4472,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4485,14 +4488,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,7 +4521,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4535,14 +4538,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4568,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4587,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4627,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4650,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4683,14 +4686,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4703,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4723,7 +4726,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,14 +4736,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4769,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4789,7 +4792,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4802,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4822,7 +4825,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4835,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4851,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4954,7 +4957,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,11 +4967,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4980,14 +4983,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4997,49 +5000,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>7070.0900000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>300</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>60</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>168</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>301</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>7152.6999999999998</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>302</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>303</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>304</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5573,10 +5609,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CIDOLUT DEPOT 250MG 1 AMP.</t>
   </si>
   <si>
@@ -491,6 +500,12 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>GLYCERIN SOAP</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>GOLDEN FER-F 30 CHEW. TABS.</t>
   </si>
   <si>
@@ -626,7 +641,7 @@
     <t>165.00</t>
   </si>
   <si>
-    <t>165.0000</t>
+    <t>330.0000</t>
   </si>
   <si>
     <t>QUITAPEX 25MG 30 F.C.TAB</t>
@@ -881,6 +896,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>مجموعه نونو</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -917,7 +941,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:14 PM</t>
+    <t>Friday, 5 September, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1987,7 +2011,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2020,7 +2044,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2037,7 +2061,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2070,7 +2094,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2086,7 +2110,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2096,14 +2120,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,14 +2136,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2152,7 +2176,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2169,7 +2193,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2185,7 +2209,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2202,7 +2226,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2218,7 +2242,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,14 +2252,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2244,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2284,7 +2308,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2317,7 +2341,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2334,7 +2358,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2350,7 +2374,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2360,14 +2384,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2376,14 +2400,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,14 +2417,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2442,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2499,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2515,7 +2539,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2525,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2548,7 +2572,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2562,10 +2586,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,14 +2598,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2614,7 +2638,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,11 +2648,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>38</v>
@@ -2640,14 +2664,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2680,7 +2704,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,7 +2714,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2713,7 +2737,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,7 +2780,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2862,7 +2886,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2878,7 +2902,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2912,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2911,7 +2935,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,11 +2945,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2954,11 +2978,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2970,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,7 +3011,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3010,7 +3034,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3043,7 +3067,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,11 +3077,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,14 +3110,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,7 +3133,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,11 +3143,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,11 +3176,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>38</v>
@@ -3168,28 +3192,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,11 +3242,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>38</v>
@@ -3234,7 +3258,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3247,7 +3271,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3274,7 +3298,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,11 +3308,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>38</v>
@@ -3300,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3324,7 +3348,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3340,7 +3364,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3390,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,7 +3430,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,11 +3473,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3465,14 +3489,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,11 +3506,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>38</v>
@@ -3498,7 +3522,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3538,7 +3562,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,31 +3588,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3604,7 +3628,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,31 +3654,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,7 +3687,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3680,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3770,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3762,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,14 +3819,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,14 +3836,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3835,7 +3859,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3869,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3902,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3935,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3934,7 +3958,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>38</v>
@@ -3960,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,11 +4067,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4059,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4125,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4224,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,31 +4281,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4314,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,31 +4347,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,28 +4380,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>63</v>
@@ -4389,31 +4413,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4429,24 +4453,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4462,24 +4486,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,28 +4512,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4521,31 +4545,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4561,24 +4585,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,31 +4611,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>148</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,31 +4644,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4677,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,28 +4710,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4719,28 +4743,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4752,31 +4776,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,28 +4809,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4818,31 +4842,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4851,31 +4875,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4884,31 +4908,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4924,21 +4948,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4950,31 +4974,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4983,28 +5007,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5016,66 +5040,165 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>7152.6999999999998</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>302</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>303</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>304</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>151</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>173</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>33</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>306</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>307</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>173</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>68</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>308</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>60</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>173</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>309</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>7598.6999999999998</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>310</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>311</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>312</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5614,10 +5737,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:18 PM</t>
+    <t>Friday, 5 September, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -734,6 +743,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VENDEXINE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -941,7 +956,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:24 PM</t>
+    <t>Friday, 5 September, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2026,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2028,7 +2043,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2044,7 +2059,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2077,7 +2092,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2094,7 +2109,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2127,7 +2142,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2143,7 +2158,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2209,7 +2224,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2226,7 +2241,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2242,7 +2257,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2259,7 +2274,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2275,7 +2290,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2301,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2341,7 +2356,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2374,7 +2389,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2391,7 +2406,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2407,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2417,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2572,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2605,7 +2620,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2619,10 +2634,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2671,7 +2686,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,11 +2696,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>38</v>
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2737,7 +2752,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,7 +2762,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2770,7 +2785,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,7 +2828,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2919,7 +2934,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2935,7 +2950,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2968,7 +2983,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,11 +2993,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,11 +3026,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,7 +3059,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3067,7 +3082,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3100,7 +3115,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,11 +3158,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3199,7 +3214,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3225,7 +3240,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3265,24 +3280,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3291,31 +3306,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3364,7 +3379,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3447,7 +3462,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3463,7 +3478,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,11 +3488,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3522,7 +3537,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3562,7 +3577,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3579,7 +3594,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3595,7 +3610,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>38</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,31 +3669,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3694,24 +3709,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,11 +3752,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>38</v>
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,7 +3801,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3826,7 +3841,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3843,7 +3858,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3859,7 +3874,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3876,7 +3891,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3892,7 +3907,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3951,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,11 +3983,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>38</v>
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4024,7 +4039,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4041,7 +4056,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,7 +4089,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4090,7 +4105,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4123,7 +4138,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4156,7 +4171,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4173,7 +4188,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4189,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,31 +4362,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,31 +4395,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4413,31 +4428,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,28 +4461,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>63</v>
@@ -4479,31 +4494,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,24 +4534,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4552,24 +4567,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,28 +4593,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4611,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4651,24 +4666,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4677,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>151</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,28 +4791,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4809,28 +4824,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4842,31 +4857,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4875,28 +4890,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4908,31 +4923,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,28 +4956,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4974,31 +4989,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5014,13 +5029,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5053,18 +5068,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5080,21 +5095,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5106,28 +5121,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5139,66 +5154,132 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>7598.6999999999998</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>310</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>311</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
         <v>312</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>176</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>71</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>313</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>60</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>176</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>314</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7654.4300000000003</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>315</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>316</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>317</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5752,10 +5833,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>CARE BY CARE CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -290,9 +302,6 @@
     <t>COPAD 10.000 30 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>215.00</t>
   </si>
   <si>
@@ -710,12 +719,6 @@
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -956,7 +959,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:33 PM</t>
+    <t>Friday, 5 September, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1944,7 +1947,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1953,14 +1956,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1970,14 +1973,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1986,14 +1989,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,14 +2006,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2019,14 +2022,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2043,7 +2046,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2052,14 +2055,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,14 +2072,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2085,14 +2088,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,11 +2105,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2135,14 +2138,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2151,7 +2154,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2168,14 +2171,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2184,14 +2187,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2208,7 +2211,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2224,7 +2227,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,11 +2237,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>38</v>
@@ -2250,14 +2253,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2267,14 +2270,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2283,14 +2286,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,14 +2303,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2316,14 +2319,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2340,7 +2343,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2356,7 +2359,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2389,7 +2392,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2422,7 +2425,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2439,7 +2442,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2455,7 +2458,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2468,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2547,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2580,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2600,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2620,7 +2623,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,14 +2633,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2653,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2667,10 +2670,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2719,7 +2722,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2729,11 +2732,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>38</v>
@@ -2745,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2762,14 +2765,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2785,7 +2788,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,7 +2798,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2818,7 +2821,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2828,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2844,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,7 +2864,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2927,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2943,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2967,7 +2970,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2983,7 +2986,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,14 +2996,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3016,7 +3019,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,11 +3029,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,11 +3062,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3075,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,7 +3095,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3115,7 +3118,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3148,7 +3151,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,11 +3161,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3174,14 +3177,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3207,14 +3210,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,14 +3227,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3247,7 +3250,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,14 +3260,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3313,24 +3316,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,31 +3342,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3412,7 +3415,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3495,7 +3498,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3511,7 +3514,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,11 +3524,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3557,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,7 +3573,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3587,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3610,7 +3613,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3627,7 +3630,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3643,7 +3646,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,11 +3656,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>38</v>
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3702,31 +3705,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,24 +3745,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3788,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>38</v>
@@ -3801,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,7 +3837,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3851,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,7 +3877,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3891,7 +3894,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3910,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3924,7 +3927,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3940,7 +3943,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3966,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,11 +4019,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>38</v>
@@ -4032,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,7 +4075,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4089,7 +4092,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,7 +4125,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4138,7 +4141,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4164,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,11 +4184,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,11 +4283,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4303,7 +4306,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,31 +4431,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>264</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,31 +4464,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>63</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,31 +4497,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4534,24 +4537,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,31 +4563,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,31 +4596,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,7 +4629,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4639,15 +4642,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4659,28 +4662,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4692,31 +4695,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,31 +4728,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4765,24 +4768,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,31 +4794,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4831,21 +4834,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4857,28 +4860,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4890,28 +4893,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4930,24 +4933,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4956,31 +4959,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4996,24 +4999,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5029,24 +5032,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,31 +5058,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,31 +5091,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,28 +5124,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5154,28 +5157,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5194,21 +5197,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5220,66 +5223,99 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7654.4300000000003</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>314</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>64</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>179</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>315</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7744.4300000000003</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>316</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
         <v>317</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>318</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5843,10 +5879,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:34 PM</t>
+    <t>Friday, 5 September, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -371,10 +371,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>59.4000</t>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
@@ -869,6 +869,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -959,7 +962,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:51 PM</t>
+    <t>Friday, 5 September, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2637,10 +2640,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -4782,10 +4785,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>64</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,7 +4797,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4811,7 +4814,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4827,7 +4830,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4860,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4877,11 +4880,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4893,7 +4896,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4910,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4926,7 +4929,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4976,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>32</v>
@@ -4992,7 +4995,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5058,7 +5061,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5091,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5141,11 +5144,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5157,14 +5160,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5190,7 +5193,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5223,14 +5226,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5256,7 +5259,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5273,7 +5276,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5285,13 +5288,13 @@
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="P119" s="13">
-        <v>7744.4300000000003</v>
+        <v>7758.3100000000004</v>
       </c>
       <c r="Q119" s="13"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
       <c t="s" r="A120" s="14">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5299,13 +5302,13 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c t="s" r="G120" s="15">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="16"/>
       <c t="s" r="K120" s="17">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
@@ -125,9 +134,6 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -962,7 +968,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 10:53 PM</t>
+    <t>Friday, 5 September, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1778,14 +1784,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1818,7 +1824,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1827,14 +1833,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1844,14 +1850,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1860,7 +1866,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1877,14 +1883,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1893,14 +1899,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1943,11 +1949,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1976,14 +1982,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2009,14 +2015,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2042,14 +2048,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2075,14 +2081,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2141,11 +2147,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2157,14 +2163,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2174,14 +2180,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2190,7 +2196,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2289,14 +2295,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,14 +2378,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2388,14 +2394,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2405,14 +2411,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,14 +2444,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2537,14 +2543,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,7 +2609,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2626,7 +2632,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,14 +2642,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2725,7 +2731,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2739,10 +2745,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,11 +2840,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2890,7 +2896,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,7 +2922,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2949,7 +2955,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2989,7 +2995,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,7 +3104,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3121,7 +3127,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3253,7 +3259,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,31 +3351,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,31 +3384,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3418,7 +3424,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,7 +3566,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3583,7 +3589,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,7 +3615,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,7 +3721,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3748,24 +3754,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3774,31 +3780,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,7 +3879,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4045,7 +4051,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4061,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4078,7 +4084,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,7 +4143,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4154,14 +4160,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,7 +4315,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,11 +4325,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,31 +4473,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>265</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,31 +4506,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4540,24 +4546,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,31 +4572,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,31 +4605,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4639,24 +4645,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,7 +4671,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4678,15 +4684,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4698,28 +4704,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4731,31 +4737,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4771,24 +4777,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>286</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,24 +4810,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>157</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4837,24 +4843,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,28 +4869,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4896,28 +4902,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4929,28 +4935,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4962,31 +4968,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,31 +5001,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,31 +5034,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,31 +5067,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5094,31 +5100,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5134,24 +5140,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>29</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5160,28 +5166,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5200,21 +5206,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5226,28 +5232,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5266,59 +5272,92 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7758.3100000000004</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>317</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>66</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>181</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>318</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7773.3100000000004</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>319</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>320</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>321</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5887,10 +5926,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -359,13 +359,16 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>5:4</t>
+    <t>4:4</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
@@ -566,9 +569,6 @@
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -875,7 +875,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -968,7 +971,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:02 PM</t>
+    <t>Friday, 5 September, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2616,7 +2619,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,7 +2628,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>35</v>
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2682,7 +2685,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,7 +2694,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2724,7 +2727,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2774,11 +2777,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2823,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2856,7 +2859,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2910,7 +2913,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>32</v>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2972,11 +2975,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>32</v>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>69</v>
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3042,7 +3045,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3141,7 +3144,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3153,7 +3156,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3186,7 +3189,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3219,7 +3222,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3273,7 +3276,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3339,7 +3342,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3368,11 +3371,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3384,7 +3387,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3397,15 +3400,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3599,7 +3602,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3793,7 +3796,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>32</v>
@@ -3863,11 +3866,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3900,7 +3903,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3952,7 +3955,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,7 +4097,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4282,7 +4285,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4348,7 +4351,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4391,7 +4394,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4480,7 +4483,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4519,7 +4522,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4552,7 +4555,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4585,7 +4588,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4618,7 +4621,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4651,7 +4654,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4684,7 +4687,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4717,7 +4720,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4744,13 +4747,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4783,7 +4786,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4816,7 +4819,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4824,10 +4827,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4836,7 +4839,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4849,18 +4852,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,7 +4872,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4882,7 +4885,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4902,7 +4905,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4915,15 +4918,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4935,28 +4938,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4968,7 +4971,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4981,7 +4984,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5001,7 +5004,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5014,15 +5017,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>35</v>
@@ -5034,7 +5037,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5047,7 +5050,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5067,7 +5070,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5080,7 +5083,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5100,7 +5103,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5113,15 +5116,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5133,20 +5136,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5154,7 +5157,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>35</v>
@@ -5166,7 +5169,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5179,15 +5182,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5199,20 +5202,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5232,20 +5235,20 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5265,20 +5268,20 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5298,7 +5301,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5311,11 +5314,11 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5327,13 +5330,13 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>7773.3100000000004</v>
+        <v>7868.3100000000004</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c t="s" r="A121" s="14">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5341,13 +5344,13 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c t="s" r="G121" s="15">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
       <c t="s" r="K121" s="17">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -971,7 +971,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:03 PM</t>
+    <t>Friday, 5 September, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -566,6 +566,15 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -971,7 +980,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:13 PM</t>
+    <t>Friday, 5 September, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3427,7 +3436,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3576,7 +3585,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3592,7 +3601,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,11 +3611,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3651,7 +3660,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3691,7 +3700,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3708,7 +3717,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>32</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,31 +3792,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,24 +3832,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,7 +3924,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3972,7 +3981,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3988,7 +3997,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4005,7 +4014,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4021,7 +4030,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>32</v>
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4153,7 +4162,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4170,7 +4179,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4252,7 +4261,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4285,7 +4294,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4302,7 +4311,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4318,7 +4327,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4332,10 +4341,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4467,7 +4476,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4483,7 +4492,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4500,7 +4509,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4516,24 +4525,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>267</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>69</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4658,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,7 +4756,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4780,7 +4789,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4794,10 +4803,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,7 +4815,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4823,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>289</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4856,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>160</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4881,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4931,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4945,7 +4954,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4978,7 +4987,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,11 +4997,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,14 +5030,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5044,7 +5053,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,14 +5096,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,14 +5129,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5143,7 +5152,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,14 +5162,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5169,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,14 +5195,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5209,7 +5218,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,11 +5228,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5235,14 +5244,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,11 +5261,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5294,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5301,14 +5310,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,49 +5327,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7868.3100000000004</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>320</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>321</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>66</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>182</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>322</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7909.8900000000003</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>323</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>324</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>325</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5934,10 +5976,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:14 PM</t>
+    <t>Friday, 5 September, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -620,6 +620,15 @@
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -650,6 +659,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -756,9 +774,6 @@
   </si>
   <si>
     <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
   </si>
   <si>
     <t>VENDEXINE SYRUP 125ML</t>
@@ -3700,7 +3715,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3733,7 +3748,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3750,7 +3765,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3766,7 +3781,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3776,11 +3791,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,31 +3840,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3865,7 +3880,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3875,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3891,31 +3906,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,7 +3939,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4030,7 +4045,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4047,7 +4062,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4063,7 +4078,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4205,7 +4220,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4228,7 +4243,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,11 +4319,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4327,7 +4342,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4344,7 +4359,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,7 +4389,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4386,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4452,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4485,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4502,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,31 +4566,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,31 +4599,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,11 +4682,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>69</v>
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4700,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4723,7 +4738,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4756,7 +4771,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4782,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,11 +4814,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4855,7 +4870,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,10 +4917,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>160</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4921,7 +4936,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4997,11 +5012,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5013,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,11 +5045,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5046,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5078,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5112,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5178,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5218,7 +5233,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,14 +5276,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5284,7 +5299,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5294,11 +5309,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5310,14 +5325,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5327,11 +5342,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5343,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5360,49 +5375,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7909.8900000000003</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>323</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>324</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>325</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>182</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>77</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>326</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>66</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>182</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>327</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7948.25</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>328</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>329</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>330</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5981,10 +6062,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:40 PM</t>
+    <t>Friday, 5 September, 2025 11:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -665,117 +665,120 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PARAMOL 120MG/5ML SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
+    <t>QUITAPEX 25MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PARAMOL 120MG/5ML SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS SHAMPOO 450ML</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>330.0000</t>
-  </si>
-  <si>
-    <t>QUITAPEX 25MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>TAVACIN 500MG 5 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>VENDEXINE SYRUP 125ML</t>
   </si>
   <si>
@@ -995,7 +998,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:48 PM</t>
+    <t>Friday, 5 September, 2025 11:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3880,7 +3883,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3897,7 +3900,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4422,7 +4425,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>32</v>
@@ -4434,7 +4437,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4451,7 +4454,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4467,7 +4470,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>59</v>
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>35</v>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4583,11 +4586,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4599,7 +4602,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4616,11 +4619,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>32</v>
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,11 +4685,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>69</v>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4752,7 +4755,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>69</v>
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4797,7 +4800,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4814,11 +4817,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4830,7 +4833,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4847,11 +4850,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4863,7 +4866,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4880,11 +4883,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4896,7 +4899,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4913,7 +4916,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4929,7 +4932,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4946,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,7 +4965,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4979,7 +4982,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5028,7 +5031,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5045,11 +5048,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5061,7 +5064,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5078,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5094,7 +5097,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5127,7 +5130,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5144,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>35</v>
@@ -5160,7 +5163,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5193,7 +5196,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5210,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>61</v>
@@ -5226,7 +5229,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5243,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5259,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5292,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5312,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5325,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,11 +5345,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5358,7 +5361,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5391,14 +5394,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5424,7 +5427,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5441,11 +5444,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5453,13 +5456,13 @@
     </row>
     <row r="123" ht="24.75" customHeight="1">
       <c r="P123" s="13">
-        <v>7948.25</v>
+        <v>7971.25</v>
       </c>
       <c r="Q123" s="13"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
       <c t="s" r="A124" s="14">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5467,13 +5470,13 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c t="s" r="G124" s="15">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="16"/>
       <c t="s" r="K124" s="17">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>

--- a/DaySale_2025-09-05_00-00.xlsx
+++ b/DaySale_2025-09-05_00-00.xlsx
@@ -104,12 +104,24 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>CARE BY CARE CREAM 100 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>FUCIDIN 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -695,6 +701,15 @@
     <t>330.0000</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>QUITAPEX 25MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -752,6 +767,15 @@
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -998,7 +1022,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Friday, 5 September, 2025 11:56 PM</t>
+    <t>Friday, 5 September, 2025 11:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1814,14 +1838,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1830,7 +1854,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1870,7 +1894,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1913,14 +1937,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1929,7 +1953,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1946,14 +1970,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1986,7 +2010,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2035,7 +2059,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2045,14 +2069,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2094,14 +2118,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2111,14 +2135,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2127,14 +2151,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2144,14 +2168,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2167,7 +2191,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2184,7 +2208,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2200,7 +2224,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2233,7 +2257,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2250,7 +2274,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2283,7 +2307,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2299,7 +2323,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2309,14 +2333,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2325,14 +2349,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2349,7 +2373,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2365,7 +2389,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2382,7 +2406,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2398,7 +2422,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2415,7 +2439,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2431,7 +2455,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2448,7 +2472,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2464,7 +2488,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2481,7 +2505,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2497,7 +2521,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2514,7 +2538,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2530,7 +2554,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2547,7 +2571,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2563,7 +2587,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2589,14 +2613,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2622,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2639,14 +2663,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,14 +2712,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2705,14 +2729,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2728,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2738,14 +2762,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2761,7 +2785,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2775,10 +2799,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2827,7 +2851,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2870,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2893,7 +2917,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,7 +2927,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2926,7 +2950,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,7 +3033,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3035,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3091,7 +3115,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3124,7 +3148,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,11 +3158,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3150,14 +3174,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3167,11 +3191,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3183,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,7 +3224,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3223,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3237,7 +3261,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3249,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,11 +3290,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3282,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3299,11 +3323,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3332,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3398,14 +3422,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,31 +3438,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,31 +3471,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,14 +3521,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3513,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,14 +3554,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,14 +3653,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3645,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,7 +3686,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3685,7 +3709,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3752,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3827,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3850,7 +3874,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3883,7 +3907,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,31 +3933,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,31 +3966,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4008,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,7 +4065,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4058,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4180,7 +4204,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,11 +4247,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>32</v>
@@ -4239,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4279,7 +4303,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4338,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4404,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4477,7 +4501,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4503,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4576,7 +4600,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4602,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4635,31 +4659,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>276</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4668,31 +4692,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,31 +4725,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,18 +4771,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>69</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,31 +4791,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,28 +4824,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4840,24 +4864,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4873,24 +4897,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4899,31 +4923,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4939,24 +4963,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4972,13 +4996,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4986,10 +5010,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,31 +5022,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,31 +5088,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,28 +5121,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>284</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5130,31 +5154,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,28 +5187,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5196,31 +5220,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5229,31 +5253,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,31 +5286,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5295,31 +5319,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5335,21 +5359,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5361,31 +5385,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5394,28 +5418,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5427,66 +5451,165 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7971.25</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>329</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>330</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>331</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>332</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>163</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>184</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>40</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>333</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>334</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>184</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>80</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>335</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>69</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>184</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>336</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>8151.6300000000001</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>337</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>338</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>339</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6075,10 +6198,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
